--- a/서울시 외국인전용 관광기념품 판매점 정보(한국어+영어+중국어).xlsx
+++ b/서울시 외국인전용 관광기념품 판매점 정보(한국어+영어+중국어).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\번역_데이터 전처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -986,22 +986,6 @@
   </si>
   <si>
     <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좌표</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -1017,6 +1001,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -1037,6 +1022,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -1060,6 +1046,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -1080,6 +1067,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -1103,6 +1091,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -1123,18 +1112,35 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1145,12 +1151,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1165,12 +1173,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1201,12 +1203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1428,7 +1429,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1437,23 +1438,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>317</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/서울시 외국인전용 관광기념품 판매점 정보(한국어+영어+중국어).xlsx
+++ b/서울시 외국인전용 관광기념품 판매점 정보(한국어+영어+중국어).xlsx
@@ -986,15 +986,23 @@
   </si>
   <si>
     <r>
+      <t>Y</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>장소명</t>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1023,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>중국어</t>
+      <t>한국어</t>
     </r>
     <r>
       <rPr>
@@ -1031,15 +1039,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장소명</t>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -1076,15 +1076,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장소명</t>
+      <t>명칭</t>
     </r>
     <r>
       <rPr>
@@ -1105,7 +1097,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>한국어</t>
+      <t>중국어</t>
     </r>
     <r>
       <rPr>
@@ -1116,22 +1108,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좌표</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1429,7 +1405,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1439,19 +1415,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>315</v>
